--- a/docs/ProjectLog.xlsx
+++ b/docs/ProjectLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Team Weekly Tasks" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="Pujitha Weekly Tasks" sheetId="5" r:id="rId5"/>
     <sheet name="Nithya Weekly Tasks" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team Weekly Tasks'!$A$1:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Start Date</t>
   </si>
@@ -39,16 +42,155 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Met the sponsor and discussed the project details. 
+2. Discussed the convenient meeting time with the sponsor and team members for future meetings.  
+3. Also discussed the skill set of team members. 
+4. Drafted the understanding of the project scope and the overview. 
+5. Prepared the minutes of meeting 1 document. 
+6. Created a log file for the team to keep a track of the tasks to be completed.
+</t>
+  </si>
+  <si>
+    <t>1. Reviewed and made changes to the project charter document.
+2. Brainstormed on the content to be filled in the project management plan.
+3. Drafted an initial version of the project management plan.
+4. Set up the communication platform slack for the team to effectively communicate with each other. 
+5. Set up Taiga to monitor the team's progess. Also created the sprints and tasks for the following weeks by assigning the tasks among team members.
+6. Set up the GitHub account for the project to integrate the team's work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Reviewed and made changes to the project charter and project manangement plan.
+2. Brainstormed on the content to be filled in the Software Requirements and Specifications
+document.
+3. Framed the requirements depending on the discussions made by the sponsor.
+3. Drafted an initial version of the SRS document.
+4. Researched the technologies required for developing the GUI for the project.
+5. Researched the different ways to create a plugin in Eclipse and started working on the 
+prototype.
+6. Prepared the minutes of meeting 3 document. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Had a brainstorming session with the team and scrutinized the project further. 
+2. Met the sponsor to get a better insight into the project and clarified the doubts. 
+3. Brainstormed on the content to be filled in the project charter. 
+4. Drafted an initial version of the project charter document.
+5. Explored and obtained a basic understanding of the concepts required for the project.
+6. Worked out with the sponsor and the team members about the different phases into which the project can be divided.
+7. Prepared the minutes of meeting 2 document. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Reviewed and made changes to the SRS, Project Management Plan and Project Charter 
+based on the sponsor's feedback.
+2. Brainstormed on the content to be filled in the Software Design and Specification
+document.
+3. Drafted an initial version of the SDS document.
+4. Discussed pros and cons of different frameworks and finalized on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "GMF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as the framework
+for developing the UI. 
+5. Made a little progress with the prototype.
+6. Came up with an architecture for the project with the current knowledge.
+7.  Prepared the minutes of meeting 4 document. </t>
+    </r>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Gained basic understanding of project requirements</t>
+  </si>
+  <si>
+    <t>1. Gone through the project proposal document.
+2. Participated in meeting with sponsor about project details
+3. Participated in meeting with team and discussed about project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Brainstormed about the requirements with the team and listed the doubts we had
+2. Met the sponsor and clarified the doubts. 
+3. Worked on section 2 (Sponso Need) of Project charter
+</t>
+  </si>
+  <si>
+    <t>1. Questions I had about the deliverables and processes to be followed are answered by the sponsor.
+2. Completed section 2 in Project Charter</t>
+  </si>
+  <si>
+    <t>1. Worked on Project Overview of Project Management Plan
+2. Researched on relavant technologies required for the project</t>
+  </si>
+  <si>
+    <t>1. Completed Project Overview of Project Management Plan
+2. From the research I did, found that EMF and GEF are the frameworks that can be used.</t>
+  </si>
+  <si>
+    <t>1. Made changes to my sections of project charter and project manangement plan.
+2. Brainstormed on Functional requirements of the project.
+3. Filled Functional requirements in SRS.
+4. Worked with Kiran in creating Gantt chart and Work Breakdown Structure.
+5. Created a sample plugin project to understand the components present in it.
+6. Researched on ways to use EMF and GEF together</t>
+  </si>
+  <si>
+    <t>1. Completed changes to project charter and project manangement plan.
+2. Completed documenting Functional requirements in SRS.
+3. Completed and uploaded Gantt chart and Work Breakdown Structure.
+4. Found that GMF combines both EMF and GEF and can be used for the project</t>
+  </si>
+  <si>
+    <t>1. Made changes to Product Functions (Section 2.2) in SRS based on the sponsors comments.
+2. Researched about the GMF framework.
+3. Started my research on Ecore models in EMF.
+4. Made changes to Quality Attributes in SRS based on Sponsor's feedback.
+5. Started my work on the design of project and filling SDS</t>
+  </si>
+  <si>
+    <t>1. Completed changes to SRS
+2. Figured out different models present in GMF
+3. Still need to work on understanding Ecore models in EMF.
+4. Completed writing about Architectural Strategies team can make use of for this project.
+5. Still need to work on architecture of the project.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,11 +222,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,8 +588,14 @@
       <c r="C2" s="2">
         <v>42669</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -451,8 +605,14 @@
       <c r="C3" s="2">
         <v>42676</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -462,8 +622,14 @@
       <c r="C4" s="2">
         <v>42683</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -473,8 +639,14 @@
       <c r="C5" s="2">
         <v>42690</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -483,6 +655,12 @@
       </c>
       <c r="C6" s="2">
         <v>42697</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -493,10 +671,15 @@
         <v>42698</v>
       </c>
       <c r="C7" s="2">
-        <v>42673</v>
+        <v>42704</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -506,14 +689,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,11 +713,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -543,8 +727,14 @@
       <c r="C2" s="2">
         <v>42669</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -554,8 +744,14 @@
       <c r="C3" s="2">
         <v>42676</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -565,8 +761,14 @@
       <c r="C4" s="2">
         <v>42683</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,8 +778,14 @@
       <c r="C5" s="2">
         <v>42690</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -586,6 +794,12 @@
       </c>
       <c r="C6" s="2">
         <v>42697</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,6 +812,7 @@
       <c r="C7" s="2">
         <v>42673</v>
       </c>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,7 +1028,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +1117,7 @@
         <v>42698</v>
       </c>
       <c r="C7" s="2">
-        <v>42673</v>
+        <v>42704</v>
       </c>
     </row>
   </sheetData>
@@ -914,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/ProjectLog.xlsx
+++ b/docs/ProjectLog.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snehi23/Desktop/SF/code/Pivi_-_Plugin_For_Visual_Parallel_Programming/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team Weekly Tasks" sheetId="1" r:id="rId1"/>
@@ -17,9 +22,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team Weekly Tasks'!$A$1:$E$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Start Date</t>
   </si>
@@ -175,11 +186,68 @@
 4. Completed writing about Architectural Strategies team can make use of for this project.
 5. Still need to work on architecture of the project.</t>
   </si>
+  <si>
+    <t>1. Reviewed the project proposal.
+2. Had a meeting with sponsor about understanding prpject in details
+3. Participated in meeting with team and discussed about project goals</t>
+  </si>
+  <si>
+    <t>Got some basic understanding of project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Brainstormed about the requirements with the team and listed the questions for sponsors
+2. Met the sponsor to clarify on those questions
+3. Worked on section 1 &amp; 3  of Project charter
+</t>
+  </si>
+  <si>
+    <t>1. Got clarification on the questions asked to sponsors 
+2. Completed section 1 &amp; 3 in Project Charter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Researched on possible libraries and software required for the project       2. Set up git account, taiga scrum board and slack communication channel and intercommunication between tools. </t>
+  </si>
+  <si>
+    <t>1. Found that GMF is supposably to be used for this project                                                              2. All accounts and software setup is done.</t>
+  </si>
+  <si>
+    <t>1. Made update on sections of project charter as per sponsor's comments.
+2. Brainstormed on Functional requirements of the project.
+3. Worked on External Interface requirements, Functional requirements, Software Quality Attributes in SRS.
+4. Tried plugin development on local to understand the technology.
+6. Researched on GMF and corresponding libraries require for project.</t>
+  </si>
+  <si>
+    <t>1. Completed changes to project charter.
+2. Completed documention External Interface Requirement, Software Quality Attribute sections in SRS.
+3. Shared undestanding with team about plugin development.
+4. Found that GMF combines both EMF and GEF and can be used for the project.</t>
+  </si>
+  <si>
+    <t>1. Made changes to External Interface Requirements, Functional Requirements in SRS based on the sponsors comments.
+2. Reseached on EMF Ecore models.
+3. Started  working on design of project and worked on the section 1 &amp; 2 of SDS.</t>
+  </si>
+  <si>
+    <t>1. Completed changes to SRS
+2. Figured out EMF Ecore model necessity.
+3. Completed the first two sections of SDS.
+4. Working on detailed design of project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Worked on Use Cases for each core functionalities of project                        2. Worked on Policies and Tacticis of SDS                                                              3. Shared EMF demo code with team mates and explain my understanding</t>
+  </si>
+  <si>
+    <t>1. Use Case is integrated in SRS and some minor comments by spnosor.                                2. Completed Policies and Tactics part of SDS      3. Working on detailed design of project             4.  EMF demo is shared on git for all team members</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,19 +617,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -578,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -612,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -629,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -646,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -663,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -689,18 +757,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -717,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -734,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -751,7 +819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -768,7 +836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -785,7 +853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -802,7 +870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -827,13 +895,13 @@
       <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -861,7 +929,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -872,7 +940,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -883,7 +951,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -894,7 +962,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -905,7 +973,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -925,17 +993,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -952,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -962,8 +1033,14 @@
       <c r="C2" s="2">
         <v>42669</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -973,8 +1050,14 @@
       <c r="C3" s="2">
         <v>42676</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -984,8 +1067,14 @@
       <c r="C4" s="2">
         <v>42683</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -995,8 +1084,14 @@
       <c r="C5" s="2">
         <v>42690</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1006,16 +1101,28 @@
       <c r="C6" s="2">
         <v>42697</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>42698</v>
       </c>
-      <c r="C7" s="2">
-        <v>42673</v>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1031,13 +1138,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.42578125" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1065,7 +1172,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1076,7 +1183,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1087,7 +1194,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1098,7 +1205,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1109,7 +1216,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1133,13 +1240,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1167,7 +1274,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1178,7 +1285,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1189,7 +1296,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1200,7 +1307,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1211,7 +1318,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
